--- a/data/1/ОФК/!печать/З/!все группы заочного для печати ОФК.xlsx
+++ b/data/1/ОФК/!печать/З/!все группы заочного для печати ОФК.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_Студенческие\2023-24\ОФК\!печать\З\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wwlo\zachetker\data-sharer\data\1\ОФК\!печать\З\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D014A83-391D-49CF-BFDE-6B6E3277933A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4153DD7-1DFF-4BE5-B731-830A08C56756}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="012" sheetId="2" r:id="rId1"/>
@@ -232,9 +232,6 @@
     <t>Агеева Янина Николаевна</t>
   </si>
   <si>
-    <t>№ студенческого билета, зачетки</t>
-  </si>
-  <si>
     <t>ФИО</t>
   </si>
   <si>
@@ -1238,6 +1235,9 @@
   </si>
   <si>
     <t>18,09,2023</t>
+  </si>
+  <si>
+    <t>N_ZACHET</t>
   </si>
 </sst>
 </file>
@@ -1714,60 +1714,60 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B39C00D4-CE3E-4CD1-A3C3-284948A334AC}">
   <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.7109375" style="1" customWidth="1"/>
-    <col min="4" max="6" width="9.140625" style="1"/>
-    <col min="7" max="7" width="21.7109375" style="11" customWidth="1"/>
-    <col min="8" max="8" width="22.85546875" style="11" customWidth="1"/>
-    <col min="9" max="9" width="25.7109375" style="11" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="7.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.6640625" style="1" customWidth="1"/>
+    <col min="4" max="6" width="9.109375" style="1"/>
+    <col min="7" max="7" width="21.6640625" style="11" customWidth="1"/>
+    <col min="8" max="8" width="22.88671875" style="11" customWidth="1"/>
+    <col min="9" max="9" width="25.6640625" style="11" customWidth="1"/>
+    <col min="10" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B1" s="7" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G2" s="12"/>
     </row>
-    <row r="3" spans="1:9" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>61</v>
+        <v>396</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="H3" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="I3" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="I3" s="5" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -1783,16 +1783,16 @@
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="13" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H4" s="14" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I4" s="16" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>2</v>
       </c>
@@ -1808,16 +1808,16 @@
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="13" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H5" s="14" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I5" s="16" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>3</v>
       </c>
@@ -1833,16 +1833,16 @@
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="13" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H6" s="14" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I6" s="16" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>4</v>
       </c>
@@ -1858,16 +1858,16 @@
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="13" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H7" s="14" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I7" s="16" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>5</v>
       </c>
@@ -1883,16 +1883,16 @@
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="13" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H8" s="14" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I8" s="16" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>6</v>
       </c>
@@ -1908,16 +1908,16 @@
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="13" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H9" s="14" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I9" s="16" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>7</v>
       </c>
@@ -1933,16 +1933,16 @@
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="G10" s="13" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H10" s="14" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I10" s="16" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>8</v>
       </c>
@@ -1958,16 +1958,16 @@
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="13" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H11" s="14" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I11" s="16" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>9</v>
       </c>
@@ -1983,16 +1983,16 @@
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="13" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H12" s="14" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I12" s="16" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>10</v>
       </c>
@@ -2008,16 +2008,16 @@
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="13" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H13" s="14" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I13" s="16" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>11</v>
       </c>
@@ -2033,16 +2033,16 @@
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="13" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H14" s="14" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I14" s="16" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>12</v>
       </c>
@@ -2058,16 +2058,16 @@
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="13" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H15" s="14" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I15" s="16" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>13</v>
       </c>
@@ -2083,16 +2083,16 @@
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="13" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H16" s="14" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I16" s="16" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>14</v>
       </c>
@@ -2108,16 +2108,16 @@
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="13" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H17" s="14" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I17" s="16" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>15</v>
       </c>
@@ -2133,16 +2133,16 @@
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18" s="13" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H18" s="14" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I18" s="16" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>16</v>
       </c>
@@ -2158,16 +2158,16 @@
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19" s="13" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H19" s="14" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I19" s="16" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>17</v>
       </c>
@@ -2183,16 +2183,16 @@
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
       <c r="G20" s="13" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H20" s="14" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I20" s="16" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>18</v>
       </c>
@@ -2208,16 +2208,16 @@
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
       <c r="G21" s="13" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H21" s="14" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I21" s="16" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>19</v>
       </c>
@@ -2233,16 +2233,16 @@
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
       <c r="G22" s="13" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H22" s="14" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I22" s="16" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>20</v>
       </c>
@@ -2258,16 +2258,16 @@
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
       <c r="G23" s="13" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H23" s="14" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I23" s="16" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>21</v>
       </c>
@@ -2283,16 +2283,16 @@
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
       <c r="G24" s="13" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H24" s="14" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I24" s="16" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>22</v>
       </c>
@@ -2308,16 +2308,16 @@
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
       <c r="G25" s="13" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H25" s="14" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I25" s="16" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <v>23</v>
       </c>
@@ -2333,16 +2333,16 @@
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
       <c r="G26" s="13" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H26" s="14" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I26" s="16" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
         <v>24</v>
       </c>
@@ -2358,16 +2358,16 @@
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
       <c r="G27" s="13" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H27" s="14" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I27" s="16" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
         <v>25</v>
       </c>
@@ -2383,16 +2383,16 @@
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
       <c r="G28" s="13" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H28" s="14" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I28" s="16" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
         <v>26</v>
       </c>
@@ -2408,16 +2408,16 @@
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
       <c r="G29" s="13" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H29" s="14" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I29" s="16" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
         <v>27</v>
       </c>
@@ -2433,16 +2433,16 @@
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
       <c r="G30" s="13" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H30" s="14" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I30" s="16" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
         <v>28</v>
       </c>
@@ -2458,16 +2458,16 @@
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
       <c r="G31" s="13" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H31" s="14" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I31" s="16" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
         <v>29</v>
       </c>
@@ -2483,16 +2483,16 @@
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
       <c r="G32" s="13" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H32" s="14" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I32" s="16" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
         <v>30</v>
       </c>
@@ -2508,13 +2508,13 @@
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
       <c r="G33" s="13" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H33" s="14" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I33" s="16" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
   </sheetData>
@@ -2534,77 +2534,77 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="31.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="21.7109375" style="11" customWidth="1"/>
-    <col min="6" max="6" width="22.85546875" style="11" customWidth="1"/>
-    <col min="7" max="7" width="25.7109375" style="11" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="7.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="31.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="21.6640625" style="11" customWidth="1"/>
+    <col min="6" max="6" width="22.88671875" style="11" customWidth="1"/>
+    <col min="7" max="7" width="25.6640625" style="11" customWidth="1"/>
+    <col min="8" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B1" s="7" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="6" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E2" s="12"/>
     </row>
-    <row r="3" spans="1:7" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>61</v>
+        <v>396</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="G3" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="G3" s="5" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G4" s="24" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
   </sheetData>
@@ -2616,150 +2616,150 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAD271E5-E613-4B76-9B8D-09BF4E5CFB81}">
   <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="37.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.7109375" style="11" customWidth="1"/>
-    <col min="6" max="6" width="22.85546875" style="11" customWidth="1"/>
-    <col min="7" max="7" width="25.7109375" style="11" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="7.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="37.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.6640625" style="11" customWidth="1"/>
+    <col min="6" max="6" width="22.88671875" style="11" customWidth="1"/>
+    <col min="7" max="7" width="25.6640625" style="11" customWidth="1"/>
+    <col min="8" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B1" s="7" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E2" s="12"/>
     </row>
-    <row r="3" spans="1:12" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>61</v>
+        <v>396</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="G3" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="G3" s="5" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:12" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>10</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G4" s="24" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>11</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G5" s="24" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>14</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G6" s="24" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>17</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G7" s="24" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="23.25" x14ac:dyDescent="0.35">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="23.4" x14ac:dyDescent="0.45">
       <c r="K12" s="25">
         <v>124</v>
       </c>
@@ -2784,67 +2784,67 @@
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.7109375" style="1" customWidth="1"/>
-    <col min="4" max="6" width="9.140625" style="1"/>
-    <col min="7" max="7" width="21.7109375" style="11" customWidth="1"/>
-    <col min="8" max="8" width="22.85546875" style="11" customWidth="1"/>
-    <col min="9" max="9" width="25.7109375" style="11" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="7.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.6640625" style="1" customWidth="1"/>
+    <col min="4" max="6" width="9.109375" style="1"/>
+    <col min="7" max="7" width="21.6640625" style="11" customWidth="1"/>
+    <col min="8" max="8" width="22.88671875" style="11" customWidth="1"/>
+    <col min="9" max="9" width="25.6640625" style="11" customWidth="1"/>
+    <col min="10" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B1" s="7" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G2" s="12"/>
     </row>
-    <row r="3" spans="1:9" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>61</v>
+        <v>396</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="H3" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="I3" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="I3" s="5" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>0</v>
@@ -2852,24 +2852,24 @@
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="13" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H4" s="14" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I4" s="16" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>2</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>0</v>
@@ -2877,24 +2877,24 @@
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="13" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H5" s="14" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I5" s="16" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>3</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>0</v>
@@ -2902,24 +2902,24 @@
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="13" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H6" s="14" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I6" s="16" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>4</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>0</v>
@@ -2927,24 +2927,24 @@
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="13" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H7" s="14" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I7" s="16" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>5</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>0</v>
@@ -2952,13 +2952,13 @@
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="13" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H8" s="14" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I8" s="16" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
   </sheetData>
@@ -2977,578 +2977,578 @@
   <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="35" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.7109375" style="1" customWidth="1"/>
-    <col min="4" max="6" width="9.140625" style="1"/>
-    <col min="7" max="7" width="10.7109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="21.7109375" style="11" customWidth="1"/>
-    <col min="9" max="9" width="22.85546875" style="11" customWidth="1"/>
-    <col min="10" max="10" width="25.7109375" style="11" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="3" width="22.6640625" style="1" customWidth="1"/>
+    <col min="4" max="6" width="9.109375" style="1"/>
+    <col min="7" max="7" width="10.6640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="21.6640625" style="11" customWidth="1"/>
+    <col min="9" max="9" width="22.88671875" style="11" customWidth="1"/>
+    <col min="10" max="10" width="25.6640625" style="11" customWidth="1"/>
+    <col min="11" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B1" s="7" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H2" s="12"/>
     </row>
-    <row r="3" spans="1:10" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>61</v>
+        <v>396</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
       <c r="H3" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="I3" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="J3" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="J3" s="5" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
       <c r="H4" s="13" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="I4" s="14" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="J4" s="16" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>2</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
       <c r="H5" s="13" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="I5" s="14" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="J5" s="16" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>3</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
       <c r="H6" s="13" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="I6" s="14" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="J6" s="16" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>4</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="13" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="I7" s="14" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="J7" s="16" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>5</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
       <c r="H8" s="13" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="I8" s="14" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="J8" s="16" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>6</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
       <c r="H9" s="13" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="I9" s="14" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="J9" s="16" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>7</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="H10" s="13" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I10" s="14" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="J10" s="16" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>8</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="13" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="I11" s="14" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="J11" s="16" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>9</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="13" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="I12" s="14" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="J12" s="16" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>10</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="13" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="I13" s="14" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="J13" s="16" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>11</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="13" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I14" s="14" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="J14" s="16" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>12</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="13" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="I15" s="14" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="J15" s="16" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>13</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="13" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="I16" s="14" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="J16" s="16" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>14</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="H17" s="13" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="I17" s="14" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="J17" s="16" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>15</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
       <c r="H18" s="13" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="I18" s="14" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="J18" s="16" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>16</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
       <c r="H19" s="13" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="I19" s="14" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="J19" s="16" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>17</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
       <c r="H20" s="13" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="I20" s="14" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="J20" s="16" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>18</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
       <c r="H21" s="13" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="I21" s="14" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="J21" s="16" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>19</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
       <c r="H22" s="13" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="I22" s="14" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="J22" s="16" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>20</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
       <c r="H23" s="13" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I23" s="14" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="J23" s="16" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
   </sheetData>
@@ -3567,537 +3567,537 @@
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="37.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.7109375" style="11" customWidth="1"/>
-    <col min="6" max="6" width="22.85546875" style="11" customWidth="1"/>
-    <col min="7" max="7" width="25.7109375" style="11" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="7.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="37.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.6640625" style="11" customWidth="1"/>
+    <col min="6" max="6" width="22.88671875" style="11" customWidth="1"/>
+    <col min="7" max="7" width="25.6640625" style="11" customWidth="1"/>
+    <col min="8" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B1" s="7" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="6" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E2" s="12"/>
     </row>
-    <row r="3" spans="1:7" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>61</v>
+        <v>396</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="G3" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="G3" s="5" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G4" s="16" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>2</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G5" s="16" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>3</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G6" s="16" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>4</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G7" s="16" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>5</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G8" s="16" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>6</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G9" s="16" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>7</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G10" s="16" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>8</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G11" s="16" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>9</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G12" s="16" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>10</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F13" s="14" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G13" s="16" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>11</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="F14" s="14" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G14" s="16" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>12</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F15" s="14" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G15" s="16" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>13</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F16" s="14" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G16" s="16" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>14</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F17" s="14" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G17" s="16" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>15</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F18" s="14" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G18" s="16" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>16</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F19" s="14" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G19" s="16" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>17</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F20" s="14" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G20" s="16" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>18</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F21" s="14" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G21" s="16" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>19</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E22" s="13" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F22" s="14" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G22" s="16" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>20</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E23" s="13" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F23" s="14" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G23" s="16" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>21</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E24" s="13" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="F24" s="14" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G24" s="16" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
   </sheetData>
@@ -4117,512 +4117,512 @@
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="25.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.7109375" style="11" customWidth="1"/>
-    <col min="6" max="6" width="22.85546875" style="11" customWidth="1"/>
-    <col min="7" max="7" width="25.7109375" style="11" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="7.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="25.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.6640625" style="11" customWidth="1"/>
+    <col min="6" max="6" width="22.88671875" style="11" customWidth="1"/>
+    <col min="7" max="7" width="25.6640625" style="11" customWidth="1"/>
+    <col min="8" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B1" s="7" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E2" s="12"/>
     </row>
-    <row r="3" spans="1:7" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>61</v>
+        <v>396</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="G3" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="G3" s="5" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>0</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G4" s="17" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>2</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>0</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G5" s="17" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>3</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>0</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G6" s="17" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>4</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>0</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G7" s="17" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>5</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>0</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G8" s="17" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>6</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>0</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G9" s="17" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>7</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>0</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G10" s="17" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>8</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>0</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G11" s="17" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>9</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>0</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G12" s="17" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>10</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>0</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F13" s="14" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G13" s="17" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>11</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>0</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F14" s="14" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G14" s="17" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>12</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>0</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F15" s="14" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G15" s="17" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>13</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>0</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F16" s="14" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G16" s="17" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>14</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>0</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F17" s="14" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G17" s="17" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>15</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>0</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F18" s="14" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G18" s="17" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.25">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="18">
         <v>16</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C19" s="19" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D19" s="18" t="s">
         <v>0</v>
       </c>
       <c r="E19" s="20" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F19" s="21" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G19" s="22"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>17</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>0</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="F20" s="14" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G20" s="17" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>18</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>0</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F21" s="14" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G21" s="24" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>19</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>0</v>
       </c>
       <c r="E22" s="13" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="F22" s="14" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G22" s="24" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>20</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>0</v>
       </c>
       <c r="E23" s="13" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F23" s="14" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G23" s="24" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
   </sheetData>
@@ -4642,422 +4642,422 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="7.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.6640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="35" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.7109375" style="11" customWidth="1"/>
-    <col min="6" max="6" width="22.85546875" style="11" customWidth="1"/>
-    <col min="7" max="7" width="25.7109375" style="11" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="1"/>
+    <col min="5" max="5" width="21.6640625" style="11" customWidth="1"/>
+    <col min="6" max="6" width="22.88671875" style="11" customWidth="1"/>
+    <col min="7" max="7" width="25.6640625" style="11" customWidth="1"/>
+    <col min="8" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B1" s="7" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E2" s="12"/>
     </row>
-    <row r="3" spans="1:7" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>61</v>
+        <v>396</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="G3" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="G3" s="5" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G4" s="24" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>2</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G5" s="24" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>3</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G6" s="24" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>4</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G7" s="24" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>5</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G8" s="24" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>6</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G9" s="24" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>7</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G10" s="24" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>8</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G11" s="24" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>9</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G12" s="24" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>10</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F13" s="14" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G13" s="24" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>11</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F14" s="14" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G14" s="24" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>13</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F15" s="14" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G15" s="24" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>14</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F16" s="14" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G16" s="24" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>15</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F17" s="14" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G17" s="24" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>16</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F18" s="14" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G18" s="24" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="10">
         <v>12</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="F19" s="14" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G19" s="24" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
   </sheetData>
@@ -5077,123 +5077,123 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="37.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.7109375" style="11" customWidth="1"/>
-    <col min="6" max="6" width="22.85546875" style="11" customWidth="1"/>
-    <col min="7" max="7" width="25.7109375" style="11" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="3" width="22.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="37.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.6640625" style="11" customWidth="1"/>
+    <col min="6" max="6" width="22.88671875" style="11" customWidth="1"/>
+    <col min="7" max="7" width="25.6640625" style="11" customWidth="1"/>
+    <col min="8" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B1" s="7" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="6" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E2" s="12"/>
     </row>
-    <row r="3" spans="1:7" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>61</v>
+        <v>396</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="G3" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="G3" s="5" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G4" s="24" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>2</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G5" s="24" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>3</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G6" s="24" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
   </sheetData>
@@ -5213,77 +5213,77 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="25.42578125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="21.7109375" style="11" customWidth="1"/>
-    <col min="6" max="6" width="22.85546875" style="11" customWidth="1"/>
-    <col min="7" max="7" width="25.7109375" style="11" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="3" width="22.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="25.44140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="21.6640625" style="11" customWidth="1"/>
+    <col min="6" max="6" width="22.88671875" style="11" customWidth="1"/>
+    <col min="7" max="7" width="25.6640625" style="11" customWidth="1"/>
+    <col min="8" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B1" s="7" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E2" s="12"/>
     </row>
-    <row r="3" spans="1:7" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>61</v>
+        <v>396</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="G3" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="G3" s="5" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>0</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G4" s="24" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
   </sheetData>
@@ -5301,123 +5301,123 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="33.140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="21.7109375" style="11" customWidth="1"/>
-    <col min="6" max="6" width="22.85546875" style="11" customWidth="1"/>
-    <col min="7" max="7" width="25.7109375" style="11" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="7.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="33.109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="21.6640625" style="11" customWidth="1"/>
+    <col min="6" max="6" width="22.88671875" style="11" customWidth="1"/>
+    <col min="7" max="7" width="25.6640625" style="11" customWidth="1"/>
+    <col min="8" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B1" s="7" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="6" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E2" s="12"/>
     </row>
-    <row r="3" spans="1:7" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>61</v>
+        <v>396</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="G3" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="G3" s="5" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G4" s="24" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>2</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G5" s="24" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>3</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G6" s="24" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
   </sheetData>

--- a/data/1/ОФК/!печать/З/!все группы заочного для печати ОФК.xlsx
+++ b/data/1/ОФК/!печать/З/!все группы заочного для печати ОФК.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wwlo\zachetker\data-sharer\data\1\ОФК\!печать\З\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4153DD7-1DFF-4BE5-B731-830A08C56756}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A46B6ACB-E408-40A9-B98A-C1C4B1FDFADD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-27840" yWindow="-2535" windowWidth="21600" windowHeight="11325" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="012" sheetId="2" r:id="rId1"/>
@@ -26,16 +26,16 @@
     <sheet name="035 (2)" sheetId="11" r:id="rId11"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'011'!$A$3:$D$3</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'012'!$A$3:$D$3</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'013'!$A$3:$D$3</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'013 (2)'!$A$3:$D$3</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'014'!$A$3:$D$3</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'021'!$A$3:$D$3</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'023'!$A$3:$D$3</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'024'!$A$3:$D$3</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'035'!$A$3:$D$3</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">'035 (2)'!$A$3:$D$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'011'!$A$1:$D$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'012'!$A$1:$D$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'013'!$A$1:$D$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'013 (2)'!$A$1:$D$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'014'!$A$1:$D$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'021'!$A$1:$D$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'023'!$A$1:$D$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'024'!$A$1:$D$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'035'!$A$1:$D$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">'035 (2)'!$A$1:$D$1</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="842" uniqueCount="397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="809" uniqueCount="386">
   <si>
     <t>Физическая реабилитация</t>
   </si>
@@ -238,15 +238,6 @@
     <t>№ п/п</t>
   </si>
   <si>
-    <t>Заочное</t>
-  </si>
-  <si>
-    <t>012</t>
-  </si>
-  <si>
-    <t>ОФК</t>
-  </si>
-  <si>
     <t>230117</t>
   </si>
   <si>
@@ -277,9 +268,6 @@
     <t>Статкевич Валерия Александровна</t>
   </si>
   <si>
-    <t>013</t>
-  </si>
-  <si>
     <t>Физическая культура дошкольников</t>
   </si>
   <si>
@@ -406,9 +394,6 @@
     <t>Абашкина Юлия Викторовна</t>
   </si>
   <si>
-    <t>035</t>
-  </si>
-  <si>
     <t>Адаптивная физическая культура</t>
   </si>
   <si>
@@ -508,9 +493,6 @@
     <t>Буяк Алиса Сергеевна</t>
   </si>
   <si>
-    <t>014</t>
-  </si>
-  <si>
     <t>230219</t>
   </si>
   <si>
@@ -757,9 +739,6 @@
     <t>Аксененко Егор Андреевич</t>
   </si>
   <si>
-    <t>011</t>
-  </si>
-  <si>
     <t>230237</t>
   </si>
   <si>
@@ -778,18 +757,12 @@
     <t>Лисковец Денис Александрович</t>
   </si>
   <si>
-    <t>021</t>
-  </si>
-  <si>
     <t>230238</t>
   </si>
   <si>
     <t>Курбатова Любовь Михайловна</t>
   </si>
   <si>
-    <t>023</t>
-  </si>
-  <si>
     <t>230241</t>
   </si>
   <si>
@@ -808,9 +781,6 @@
     <t>Пыко Дмитрий Александрович</t>
   </si>
   <si>
-    <t>024</t>
-  </si>
-  <si>
     <t>230246</t>
   </si>
   <si>
@@ -839,9 +809,6 @@
   </si>
   <si>
     <t>Фёдорова Юлия Сергеевна</t>
-  </si>
-  <si>
-    <t>034</t>
   </si>
   <si>
     <t>№ Бланка</t>
@@ -1293,15 +1260,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <name val="Arial"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="14"/>
+      <sz val="12"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="204"/>
@@ -1368,67 +1336,65 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1712,10 +1678,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B39C00D4-CE3E-4CD1-A3C3-284948A334AC}">
-  <dimension ref="A1:I33"/>
+  <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="A1:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1724,803 +1690,789 @@
     <col min="2" max="2" width="35.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22.6640625" style="1" customWidth="1"/>
     <col min="4" max="6" width="9.109375" style="1"/>
-    <col min="7" max="7" width="21.6640625" style="11" customWidth="1"/>
-    <col min="8" max="8" width="22.88671875" style="11" customWidth="1"/>
-    <col min="9" max="9" width="25.6640625" style="11" customWidth="1"/>
+    <col min="7" max="7" width="21.6640625" style="9" customWidth="1"/>
+    <col min="8" max="8" width="22.88671875" style="9" customWidth="1"/>
+    <col min="9" max="9" width="25.6640625" style="9" customWidth="1"/>
     <col min="10" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B1" s="7" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B2" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="G2" s="12"/>
-    </row>
-    <row r="3" spans="1:9" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
+    <row r="1" spans="1:9" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B1" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>396</v>
-      </c>
-      <c r="D3" s="5"/>
+      <c r="C1" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="D1" s="5"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
-      <c r="G3" s="5" t="s">
-        <v>265</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>266</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>267</v>
+      <c r="G3" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="I3" s="13" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>0</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
-      <c r="G4" s="13" t="s">
-        <v>268</v>
-      </c>
-      <c r="H4" s="14" t="s">
-        <v>273</v>
-      </c>
-      <c r="I4" s="16" t="s">
-        <v>393</v>
+      <c r="G4" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="I4" s="13" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>0</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
-      <c r="G5" s="13" t="s">
-        <v>269</v>
-      </c>
-      <c r="H5" s="14" t="s">
-        <v>273</v>
-      </c>
-      <c r="I5" s="16" t="s">
-        <v>393</v>
+      <c r="G5" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="I5" s="13" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>0</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
-      <c r="G6" s="13" t="s">
-        <v>270</v>
-      </c>
-      <c r="H6" s="14" t="s">
-        <v>273</v>
-      </c>
-      <c r="I6" s="16" t="s">
-        <v>393</v>
+      <c r="G6" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="I6" s="13" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>0</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
-      <c r="G7" s="13" t="s">
-        <v>271</v>
-      </c>
-      <c r="H7" s="14" t="s">
-        <v>273</v>
-      </c>
-      <c r="I7" s="16" t="s">
-        <v>393</v>
+      <c r="G7" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="I7" s="13" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>0</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
-      <c r="G8" s="13" t="s">
-        <v>272</v>
-      </c>
-      <c r="H8" s="14" t="s">
-        <v>273</v>
-      </c>
-      <c r="I8" s="16" t="s">
-        <v>393</v>
+      <c r="G8" s="10" t="s">
+        <v>264</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="I8" s="13" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>0</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
-      <c r="G9" s="13" t="s">
-        <v>274</v>
-      </c>
-      <c r="H9" s="14" t="s">
-        <v>273</v>
-      </c>
-      <c r="I9" s="16" t="s">
-        <v>393</v>
+      <c r="G9" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="I9" s="13" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>0</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
-      <c r="G10" s="13" t="s">
-        <v>275</v>
-      </c>
-      <c r="H10" s="14" t="s">
-        <v>273</v>
-      </c>
-      <c r="I10" s="16" t="s">
-        <v>393</v>
+      <c r="G10" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="I10" s="13" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>0</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
-      <c r="G11" s="13" t="s">
-        <v>276</v>
-      </c>
-      <c r="H11" s="14" t="s">
-        <v>273</v>
-      </c>
-      <c r="I11" s="16" t="s">
-        <v>393</v>
+      <c r="G11" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="I11" s="13" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>0</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
-      <c r="G12" s="13" t="s">
-        <v>277</v>
-      </c>
-      <c r="H12" s="14" t="s">
-        <v>273</v>
-      </c>
-      <c r="I12" s="16" t="s">
-        <v>393</v>
+      <c r="G12" s="10" t="s">
+        <v>268</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="I12" s="13" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>0</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
-      <c r="G13" s="13" t="s">
-        <v>278</v>
-      </c>
-      <c r="H13" s="14" t="s">
-        <v>273</v>
-      </c>
-      <c r="I13" s="16" t="s">
-        <v>393</v>
+      <c r="G13" s="10" t="s">
+        <v>269</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="I13" s="13" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>0</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
-      <c r="G14" s="13" t="s">
-        <v>279</v>
-      </c>
-      <c r="H14" s="14" t="s">
-        <v>273</v>
-      </c>
-      <c r="I14" s="16" t="s">
-        <v>393</v>
+      <c r="G14" s="10" t="s">
+        <v>270</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="I14" s="13" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>0</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
-      <c r="G15" s="13" t="s">
-        <v>280</v>
-      </c>
-      <c r="H15" s="14" t="s">
-        <v>273</v>
-      </c>
-      <c r="I15" s="16" t="s">
-        <v>393</v>
+      <c r="G15" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="I15" s="13" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>0</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
-      <c r="G16" s="13" t="s">
-        <v>281</v>
-      </c>
-      <c r="H16" s="14" t="s">
-        <v>273</v>
-      </c>
-      <c r="I16" s="16" t="s">
-        <v>393</v>
+      <c r="G16" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="H16" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="I16" s="13" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>0</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
-      <c r="G17" s="13" t="s">
-        <v>282</v>
-      </c>
-      <c r="H17" s="14" t="s">
+      <c r="G17" s="10" t="s">
         <v>273</v>
       </c>
-      <c r="I17" s="16" t="s">
-        <v>393</v>
+      <c r="H17" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="I17" s="13" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>0</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
-      <c r="G18" s="13" t="s">
-        <v>283</v>
-      </c>
-      <c r="H18" s="14" t="s">
-        <v>273</v>
-      </c>
-      <c r="I18" s="16" t="s">
-        <v>393</v>
+      <c r="G18" s="10" t="s">
+        <v>274</v>
+      </c>
+      <c r="H18" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="I18" s="13" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>0</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
-      <c r="G19" s="13" t="s">
-        <v>284</v>
-      </c>
-      <c r="H19" s="14" t="s">
-        <v>273</v>
-      </c>
-      <c r="I19" s="16" t="s">
-        <v>393</v>
+      <c r="G19" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="H19" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="I19" s="13" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>0</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
-      <c r="G20" s="13" t="s">
-        <v>285</v>
-      </c>
-      <c r="H20" s="14" t="s">
-        <v>273</v>
-      </c>
-      <c r="I20" s="16" t="s">
-        <v>393</v>
+      <c r="G20" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="H20" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="I20" s="13" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>0</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
-      <c r="G21" s="13" t="s">
-        <v>286</v>
-      </c>
-      <c r="H21" s="14" t="s">
-        <v>273</v>
-      </c>
-      <c r="I21" s="16" t="s">
-        <v>393</v>
+      <c r="G21" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="H21" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="I21" s="13" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
+        <v>21</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>0</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
-      <c r="G22" s="13" t="s">
-        <v>287</v>
-      </c>
-      <c r="H22" s="14" t="s">
-        <v>273</v>
-      </c>
-      <c r="I22" s="16" t="s">
-        <v>393</v>
+      <c r="G22" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="H22" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="I22" s="13" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>0</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
-      <c r="G23" s="13" t="s">
-        <v>288</v>
-      </c>
-      <c r="H23" s="14" t="s">
-        <v>273</v>
-      </c>
-      <c r="I23" s="16" t="s">
-        <v>393</v>
+      <c r="G23" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="H23" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="I23" s="13" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>0</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
-      <c r="G24" s="13" t="s">
-        <v>289</v>
-      </c>
-      <c r="H24" s="14" t="s">
-        <v>273</v>
-      </c>
-      <c r="I24" s="16" t="s">
-        <v>393</v>
+      <c r="G24" s="10" t="s">
+        <v>280</v>
+      </c>
+      <c r="H24" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="I24" s="13" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>0</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
-      <c r="G25" s="13" t="s">
-        <v>290</v>
-      </c>
-      <c r="H25" s="14" t="s">
-        <v>273</v>
-      </c>
-      <c r="I25" s="16" t="s">
-        <v>393</v>
+      <c r="G25" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="H25" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="I25" s="13" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>0</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
-      <c r="G26" s="13" t="s">
-        <v>291</v>
-      </c>
-      <c r="H26" s="14" t="s">
-        <v>273</v>
-      </c>
-      <c r="I26" s="16" t="s">
-        <v>393</v>
+      <c r="G26" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="H26" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="I26" s="13" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>0</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
-      <c r="G27" s="13" t="s">
-        <v>292</v>
-      </c>
-      <c r="H27" s="14" t="s">
-        <v>273</v>
-      </c>
-      <c r="I27" s="16" t="s">
-        <v>393</v>
+      <c r="G27" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="H27" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="I27" s="13" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>0</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
-      <c r="G28" s="13" t="s">
-        <v>293</v>
-      </c>
-      <c r="H28" s="14" t="s">
-        <v>273</v>
-      </c>
-      <c r="I28" s="16" t="s">
-        <v>393</v>
+      <c r="G28" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="H28" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="I28" s="13" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>0</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
-      <c r="G29" s="13" t="s">
-        <v>294</v>
-      </c>
-      <c r="H29" s="14" t="s">
-        <v>273</v>
-      </c>
-      <c r="I29" s="16" t="s">
-        <v>393</v>
+      <c r="G29" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="H29" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="I29" s="13" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>0</v>
       </c>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
-      <c r="G30" s="13" t="s">
-        <v>295</v>
-      </c>
-      <c r="H30" s="14" t="s">
-        <v>273</v>
-      </c>
-      <c r="I30" s="16" t="s">
-        <v>393</v>
+      <c r="G30" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="H30" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="I30" s="13" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>0</v>
       </c>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
-      <c r="G31" s="13" t="s">
-        <v>296</v>
-      </c>
-      <c r="H31" s="14" t="s">
-        <v>273</v>
-      </c>
-      <c r="I31" s="16" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A32" s="3">
-        <v>29</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="13" t="s">
-        <v>297</v>
-      </c>
-      <c r="H32" s="14" t="s">
-        <v>273</v>
-      </c>
-      <c r="I32" s="16" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A33" s="3">
-        <v>30</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="13" t="s">
-        <v>298</v>
-      </c>
-      <c r="H33" s="14" t="s">
-        <v>273</v>
-      </c>
-      <c r="I33" s="16" t="s">
-        <v>393</v>
+      <c r="G31" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="H31" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="I31" s="13" t="s">
+        <v>382</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:D3" xr:uid="{B39C00D4-CE3E-4CD1-A3C3-284948A334AC}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:D33">
-      <sortCondition ref="C3"/>
+  <autoFilter ref="A1:D1" xr:uid="{B39C00D4-CE3E-4CD1-A3C3-284948A334AC}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D31">
+      <sortCondition ref="C1"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="10" type="noConversion"/>
@@ -2531,10 +2483,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CA1A057-62E3-4F36-8553-2C596515577D}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2543,68 +2495,54 @@
     <col min="2" max="2" width="34.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22.6640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="31.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="21.6640625" style="11" customWidth="1"/>
-    <col min="6" max="6" width="22.88671875" style="11" customWidth="1"/>
-    <col min="7" max="7" width="25.6640625" style="11" customWidth="1"/>
+    <col min="5" max="5" width="21.6640625" style="9" customWidth="1"/>
+    <col min="6" max="6" width="22.88671875" style="9" customWidth="1"/>
+    <col min="7" max="7" width="25.6640625" style="9" customWidth="1"/>
     <col min="8" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B1" s="7" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B2" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="E2" s="12"/>
-    </row>
-    <row r="3" spans="1:7" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
+    <row r="1" spans="1:7" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B1" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>396</v>
-      </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5" t="s">
-        <v>265</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>266</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="3">
+      <c r="C1" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>387</v>
-      </c>
-      <c r="F4" s="14" t="s">
-        <v>273</v>
-      </c>
-      <c r="G4" s="24" t="s">
-        <v>395</v>
+      <c r="B2" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>376</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="G2" s="21" t="s">
+        <v>384</v>
       </c>
     </row>
   </sheetData>
@@ -2614,10 +2552,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAD271E5-E613-4B76-9B8D-09BF4E5CFB81}">
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2626,151 +2564,137 @@
     <col min="2" max="2" width="33.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22.6640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="37.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.6640625" style="11" customWidth="1"/>
-    <col min="6" max="6" width="22.88671875" style="11" customWidth="1"/>
-    <col min="7" max="7" width="25.6640625" style="11" customWidth="1"/>
+    <col min="5" max="5" width="21.6640625" style="9" customWidth="1"/>
+    <col min="6" max="6" width="22.88671875" style="9" customWidth="1"/>
+    <col min="7" max="7" width="25.6640625" style="9" customWidth="1"/>
     <col min="8" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B1" s="7" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B2" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="E2" s="12"/>
-    </row>
-    <row r="3" spans="1:12" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
+    <row r="1" spans="1:12" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B1" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>396</v>
-      </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5" t="s">
-        <v>265</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>266</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>267</v>
+      <c r="C1" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3">
+        <v>10</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>377</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="G2" s="21" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3">
+        <v>11</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>378</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="G3" s="21" t="s">
+        <v>384</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>261</v>
+        <v>247</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>260</v>
+        <v>246</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>388</v>
-      </c>
-      <c r="F4" s="14" t="s">
-        <v>273</v>
-      </c>
-      <c r="G4" s="24" t="s">
-        <v>395</v>
+        <v>73</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>379</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="G4" s="21" t="s">
+        <v>384</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>259</v>
+        <v>245</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>258</v>
+        <v>244</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>389</v>
-      </c>
-      <c r="F5" s="14" t="s">
-        <v>273</v>
-      </c>
-      <c r="G5" s="24" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="3">
-        <v>14</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>390</v>
-      </c>
-      <c r="F6" s="14" t="s">
-        <v>273</v>
-      </c>
-      <c r="G6" s="24" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="3">
-        <v>17</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>391</v>
-      </c>
-      <c r="F7" s="14" t="s">
-        <v>273</v>
-      </c>
-      <c r="G7" s="24" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="K12" s="25">
+        <v>78</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>380</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="G5" s="21" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="K10" s="22">
         <v>124</v>
       </c>
-      <c r="L12" s="15">
+      <c r="L10" s="12">
         <v>123</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:D3" xr:uid="{FAD271E5-E613-4B76-9B8D-09BF4E5CFB81}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:D7">
-      <sortCondition ref="C3"/>
+  <autoFilter ref="A1:D1" xr:uid="{FAD271E5-E613-4B76-9B8D-09BF4E5CFB81}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D5">
+      <sortCondition ref="C1"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="10" type="noConversion"/>
@@ -2781,10 +2705,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4077050-0A8A-4CB3-8D3F-DCF5216F8893}">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2793,178 +2717,164 @@
     <col min="2" max="2" width="33.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22.6640625" style="1" customWidth="1"/>
     <col min="4" max="6" width="9.109375" style="1"/>
-    <col min="7" max="7" width="21.6640625" style="11" customWidth="1"/>
-    <col min="8" max="8" width="22.88671875" style="11" customWidth="1"/>
-    <col min="9" max="9" width="25.6640625" style="11" customWidth="1"/>
+    <col min="7" max="7" width="21.6640625" style="9" customWidth="1"/>
+    <col min="8" max="8" width="22.88671875" style="9" customWidth="1"/>
+    <col min="9" max="9" width="25.6640625" style="9" customWidth="1"/>
     <col min="10" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B1" s="7" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B2" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="G2" s="12"/>
-    </row>
-    <row r="3" spans="1:9" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
+    <row r="1" spans="1:9" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B1" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>396</v>
-      </c>
-      <c r="D3" s="5"/>
+      <c r="C1" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="D1" s="5"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="10" t="s">
+        <v>288</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
-      <c r="G3" s="5" t="s">
-        <v>265</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>266</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>267</v>
+      <c r="G3" s="10" t="s">
+        <v>289</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="I3" s="13" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>0</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
-      <c r="G4" s="13" t="s">
-        <v>299</v>
-      </c>
-      <c r="H4" s="14" t="s">
-        <v>273</v>
-      </c>
-      <c r="I4" s="16" t="s">
-        <v>393</v>
+      <c r="G4" s="10" t="s">
+        <v>290</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="I4" s="13" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>0</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
-      <c r="G5" s="13" t="s">
-        <v>300</v>
-      </c>
-      <c r="H5" s="14" t="s">
-        <v>273</v>
-      </c>
-      <c r="I5" s="16" t="s">
-        <v>393</v>
+      <c r="G5" s="10" t="s">
+        <v>291</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="I5" s="13" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>0</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
-      <c r="G6" s="13" t="s">
-        <v>301</v>
-      </c>
-      <c r="H6" s="14" t="s">
-        <v>273</v>
-      </c>
-      <c r="I6" s="16" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="3">
-        <v>4</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="13" t="s">
-        <v>302</v>
-      </c>
-      <c r="H7" s="14" t="s">
-        <v>273</v>
-      </c>
-      <c r="I7" s="16" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="3">
-        <v>5</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="13" t="s">
-        <v>303</v>
-      </c>
-      <c r="H8" s="14" t="s">
-        <v>273</v>
-      </c>
-      <c r="I8" s="16" t="s">
-        <v>393</v>
+      <c r="G6" s="10" t="s">
+        <v>292</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="I6" s="13" t="s">
+        <v>382</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:D3" xr:uid="{B4077050-0A8A-4CB3-8D3F-DCF5216F8893}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:D8">
-      <sortCondition ref="C3"/>
+  <autoFilter ref="A1:D1" xr:uid="{B4077050-0A8A-4CB3-8D3F-DCF5216F8893}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D6">
+      <sortCondition ref="C1"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="10" type="noConversion"/>
@@ -2974,10 +2884,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81C584FA-834C-41CF-A13A-D94E2903E107}">
-  <dimension ref="A1:J23"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B2" sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2987,574 +2897,560 @@
     <col min="3" max="3" width="22.6640625" style="1" customWidth="1"/>
     <col min="4" max="6" width="9.109375" style="1"/>
     <col min="7" max="7" width="10.6640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="21.6640625" style="11" customWidth="1"/>
-    <col min="9" max="9" width="22.88671875" style="11" customWidth="1"/>
-    <col min="10" max="10" width="25.6640625" style="11" customWidth="1"/>
+    <col min="8" max="8" width="21.6640625" style="9" customWidth="1"/>
+    <col min="9" max="9" width="22.88671875" style="9" customWidth="1"/>
+    <col min="10" max="10" width="25.6640625" style="9" customWidth="1"/>
     <col min="11" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B1" s="7" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B2" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="H2" s="12"/>
-    </row>
-    <row r="3" spans="1:10" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
+    <row r="1" spans="1:10" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B1" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>396</v>
-      </c>
-      <c r="D3" s="5"/>
+      <c r="C1" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="D1" s="5"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="10" t="s">
+        <v>293</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="J2" s="13" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>78</v>
+      </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
-      <c r="H3" s="5" t="s">
-        <v>265</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>266</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>267</v>
+      <c r="H3" s="10" t="s">
+        <v>294</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="J3" s="13" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
-      <c r="H4" s="13" t="s">
-        <v>304</v>
-      </c>
-      <c r="I4" s="14" t="s">
-        <v>273</v>
-      </c>
-      <c r="J4" s="16" t="s">
-        <v>393</v>
+      <c r="H4" s="10" t="s">
+        <v>295</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="J4" s="13" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
-      <c r="H5" s="13" t="s">
-        <v>305</v>
-      </c>
-      <c r="I5" s="14" t="s">
-        <v>273</v>
-      </c>
-      <c r="J5" s="16" t="s">
-        <v>393</v>
+      <c r="H5" s="10" t="s">
+        <v>296</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="J5" s="13" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
-      <c r="H6" s="13" t="s">
-        <v>306</v>
-      </c>
-      <c r="I6" s="14" t="s">
-        <v>273</v>
-      </c>
-      <c r="J6" s="16" t="s">
-        <v>393</v>
+      <c r="H6" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="J6" s="13" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
-      <c r="H7" s="13" t="s">
-        <v>307</v>
-      </c>
-      <c r="I7" s="14" t="s">
-        <v>273</v>
-      </c>
-      <c r="J7" s="16" t="s">
-        <v>393</v>
+      <c r="H7" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="I7" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="J7" s="13" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
-      <c r="H8" s="13" t="s">
-        <v>308</v>
-      </c>
-      <c r="I8" s="14" t="s">
-        <v>273</v>
-      </c>
-      <c r="J8" s="16" t="s">
-        <v>393</v>
+      <c r="H8" s="10" t="s">
+        <v>299</v>
+      </c>
+      <c r="I8" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="J8" s="13" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
-      <c r="H9" s="13" t="s">
-        <v>309</v>
-      </c>
-      <c r="I9" s="14" t="s">
-        <v>273</v>
-      </c>
-      <c r="J9" s="16" t="s">
-        <v>393</v>
+      <c r="H9" s="10" t="s">
+        <v>300</v>
+      </c>
+      <c r="I9" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="J9" s="13" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
-      <c r="H10" s="13" t="s">
-        <v>310</v>
-      </c>
-      <c r="I10" s="14" t="s">
-        <v>273</v>
-      </c>
-      <c r="J10" s="16" t="s">
-        <v>393</v>
+      <c r="H10" s="10" t="s">
+        <v>301</v>
+      </c>
+      <c r="I10" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="J10" s="13" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
-      <c r="H11" s="13" t="s">
-        <v>311</v>
-      </c>
-      <c r="I11" s="14" t="s">
-        <v>273</v>
-      </c>
-      <c r="J11" s="16" t="s">
-        <v>393</v>
+      <c r="H11" s="10" t="s">
+        <v>302</v>
+      </c>
+      <c r="I11" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="J11" s="13" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
-      <c r="H12" s="13" t="s">
-        <v>312</v>
-      </c>
-      <c r="I12" s="14" t="s">
-        <v>273</v>
-      </c>
-      <c r="J12" s="16" t="s">
-        <v>393</v>
+      <c r="H12" s="10" t="s">
+        <v>303</v>
+      </c>
+      <c r="I12" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="J12" s="13" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
-      <c r="H13" s="13" t="s">
-        <v>313</v>
-      </c>
-      <c r="I13" s="14" t="s">
-        <v>273</v>
-      </c>
-      <c r="J13" s="16" t="s">
-        <v>393</v>
+      <c r="H13" s="10" t="s">
+        <v>304</v>
+      </c>
+      <c r="I13" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="J13" s="13" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
-      <c r="H14" s="13" t="s">
-        <v>314</v>
-      </c>
-      <c r="I14" s="14" t="s">
-        <v>273</v>
-      </c>
-      <c r="J14" s="16" t="s">
-        <v>393</v>
+      <c r="H14" s="10" t="s">
+        <v>305</v>
+      </c>
+      <c r="I14" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="J14" s="13" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
-      <c r="H15" s="13" t="s">
-        <v>315</v>
-      </c>
-      <c r="I15" s="14" t="s">
-        <v>273</v>
-      </c>
-      <c r="J15" s="16" t="s">
-        <v>393</v>
+      <c r="H15" s="10" t="s">
+        <v>306</v>
+      </c>
+      <c r="I15" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="J15" s="13" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
-      <c r="H16" s="13" t="s">
-        <v>316</v>
-      </c>
-      <c r="I16" s="14" t="s">
-        <v>273</v>
-      </c>
-      <c r="J16" s="16" t="s">
-        <v>393</v>
+      <c r="H16" s="10" t="s">
+        <v>307</v>
+      </c>
+      <c r="I16" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="J16" s="13" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
-      <c r="H17" s="13" t="s">
-        <v>317</v>
-      </c>
-      <c r="I17" s="14" t="s">
-        <v>273</v>
-      </c>
-      <c r="J17" s="16" t="s">
-        <v>393</v>
+      <c r="H17" s="10" t="s">
+        <v>308</v>
+      </c>
+      <c r="I17" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="J17" s="13" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
-      <c r="H18" s="13" t="s">
-        <v>318</v>
-      </c>
-      <c r="I18" s="14" t="s">
-        <v>273</v>
-      </c>
-      <c r="J18" s="16" t="s">
-        <v>393</v>
+      <c r="H18" s="10" t="s">
+        <v>309</v>
+      </c>
+      <c r="I18" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="J18" s="13" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
-      <c r="H19" s="13" t="s">
-        <v>319</v>
-      </c>
-      <c r="I19" s="14" t="s">
-        <v>273</v>
-      </c>
-      <c r="J19" s="16" t="s">
-        <v>393</v>
+      <c r="H19" s="10" t="s">
+        <v>310</v>
+      </c>
+      <c r="I19" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="J19" s="13" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
-      <c r="H20" s="13" t="s">
-        <v>320</v>
-      </c>
-      <c r="I20" s="14" t="s">
-        <v>273</v>
-      </c>
-      <c r="J20" s="16" t="s">
-        <v>393</v>
+      <c r="H20" s="10" t="s">
+        <v>311</v>
+      </c>
+      <c r="I20" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="J20" s="13" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
-      <c r="H21" s="13" t="s">
-        <v>321</v>
-      </c>
-      <c r="I21" s="14" t="s">
-        <v>273</v>
-      </c>
-      <c r="J21" s="16" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="3">
-        <v>19</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="13" t="s">
-        <v>322</v>
-      </c>
-      <c r="I22" s="14" t="s">
-        <v>273</v>
-      </c>
-      <c r="J22" s="16" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="3">
-        <v>20</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="13" t="s">
-        <v>323</v>
-      </c>
-      <c r="I23" s="14" t="s">
-        <v>273</v>
-      </c>
-      <c r="J23" s="16" t="s">
-        <v>393</v>
+      <c r="H21" s="10" t="s">
+        <v>312</v>
+      </c>
+      <c r="I21" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="J21" s="13" t="s">
+        <v>382</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:D3" xr:uid="{81C584FA-834C-41CF-A13A-D94E2903E107}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:D23">
-      <sortCondition ref="C3"/>
+  <autoFilter ref="A1:D1" xr:uid="{81C584FA-834C-41CF-A13A-D94E2903E107}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D21">
+      <sortCondition ref="C1"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="10" type="noConversion"/>
@@ -3564,10 +3460,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEF16938-D8E5-4801-B1E5-FBCE86DB855C}">
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B2" sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3576,534 +3472,520 @@
     <col min="2" max="2" width="30.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22.6640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="37.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.6640625" style="11" customWidth="1"/>
-    <col min="6" max="6" width="22.88671875" style="11" customWidth="1"/>
-    <col min="7" max="7" width="25.6640625" style="11" customWidth="1"/>
+    <col min="5" max="5" width="21.6640625" style="9" customWidth="1"/>
+    <col min="6" max="6" width="22.88671875" style="9" customWidth="1"/>
+    <col min="7" max="7" width="25.6640625" style="9" customWidth="1"/>
     <col min="8" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B1" s="7" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B2" s="6" t="s">
-        <v>236</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="E2" s="12"/>
-    </row>
-    <row r="3" spans="1:7" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
+    <row r="1" spans="1:7" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B1" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>396</v>
-      </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5" t="s">
-        <v>265</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>266</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>267</v>
+      <c r="C1" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>313</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>314</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>324</v>
-      </c>
-      <c r="F4" s="14" t="s">
-        <v>273</v>
-      </c>
-      <c r="G4" s="16" t="s">
-        <v>393</v>
+        <v>78</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>315</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>325</v>
-      </c>
-      <c r="F5" s="14" t="s">
-        <v>273</v>
-      </c>
-      <c r="G5" s="16" t="s">
-        <v>393</v>
+        <v>78</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>316</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>326</v>
-      </c>
-      <c r="F6" s="14" t="s">
-        <v>273</v>
-      </c>
-      <c r="G6" s="16" t="s">
-        <v>393</v>
+        <v>78</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>317</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>327</v>
-      </c>
-      <c r="F7" s="14" t="s">
-        <v>273</v>
-      </c>
-      <c r="G7" s="16" t="s">
-        <v>393</v>
+        <v>78</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>318</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>328</v>
-      </c>
-      <c r="F8" s="14" t="s">
-        <v>273</v>
-      </c>
-      <c r="G8" s="16" t="s">
-        <v>393</v>
+        <v>78</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>319</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>329</v>
-      </c>
-      <c r="F9" s="14" t="s">
-        <v>273</v>
-      </c>
-      <c r="G9" s="16" t="s">
-        <v>393</v>
+        <v>78</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>320</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="E10" s="13" t="s">
-        <v>330</v>
-      </c>
-      <c r="F10" s="14" t="s">
-        <v>273</v>
-      </c>
-      <c r="G10" s="16" t="s">
-        <v>393</v>
+        <v>78</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>321</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="E11" s="13" t="s">
-        <v>331</v>
-      </c>
-      <c r="F11" s="14" t="s">
-        <v>273</v>
-      </c>
-      <c r="G11" s="16" t="s">
-        <v>393</v>
+        <v>78</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>322</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="E12" s="13" t="s">
-        <v>332</v>
-      </c>
-      <c r="F12" s="14" t="s">
-        <v>273</v>
-      </c>
-      <c r="G12" s="16" t="s">
-        <v>393</v>
+        <v>78</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>323</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="E13" s="13" t="s">
-        <v>333</v>
-      </c>
-      <c r="F13" s="14" t="s">
-        <v>273</v>
-      </c>
-      <c r="G13" s="16" t="s">
-        <v>393</v>
+        <v>78</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>324</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="E14" s="13" t="s">
-        <v>334</v>
-      </c>
-      <c r="F14" s="14" t="s">
-        <v>273</v>
-      </c>
-      <c r="G14" s="16" t="s">
-        <v>393</v>
+        <v>78</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>325</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="G14" s="13" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="E15" s="13" t="s">
-        <v>335</v>
-      </c>
-      <c r="F15" s="14" t="s">
-        <v>273</v>
-      </c>
-      <c r="G15" s="16" t="s">
-        <v>393</v>
+        <v>78</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>326</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="G15" s="13" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="E16" s="13" t="s">
-        <v>336</v>
-      </c>
-      <c r="F16" s="14" t="s">
-        <v>273</v>
-      </c>
-      <c r="G16" s="16" t="s">
-        <v>393</v>
+        <v>78</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>327</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="G16" s="13" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="E17" s="13" t="s">
-        <v>337</v>
-      </c>
-      <c r="F17" s="14" t="s">
-        <v>273</v>
-      </c>
-      <c r="G17" s="16" t="s">
-        <v>393</v>
+        <v>78</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>328</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="G17" s="13" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="E18" s="13" t="s">
-        <v>338</v>
-      </c>
-      <c r="F18" s="14" t="s">
-        <v>273</v>
-      </c>
-      <c r="G18" s="16" t="s">
-        <v>393</v>
+        <v>78</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>329</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="G18" s="13" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="E19" s="13" t="s">
-        <v>339</v>
-      </c>
-      <c r="F19" s="14" t="s">
-        <v>273</v>
-      </c>
-      <c r="G19" s="16" t="s">
-        <v>393</v>
+        <v>78</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>330</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="G19" s="13" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="E20" s="13" t="s">
-        <v>340</v>
-      </c>
-      <c r="F20" s="14" t="s">
-        <v>273</v>
-      </c>
-      <c r="G20" s="16" t="s">
-        <v>393</v>
+        <v>78</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>331</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="G20" s="13" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="E21" s="13" t="s">
-        <v>341</v>
-      </c>
-      <c r="F21" s="14" t="s">
-        <v>273</v>
-      </c>
-      <c r="G21" s="16" t="s">
-        <v>393</v>
+        <v>78</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>332</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="G21" s="13" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="E22" s="13" t="s">
-        <v>342</v>
-      </c>
-      <c r="F22" s="14" t="s">
-        <v>273</v>
-      </c>
-      <c r="G22" s="16" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="3">
-        <v>20</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="E23" s="13" t="s">
-        <v>343</v>
-      </c>
-      <c r="F23" s="14" t="s">
-        <v>273</v>
-      </c>
-      <c r="G23" s="16" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="3">
-        <v>21</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="E24" s="13" t="s">
-        <v>344</v>
-      </c>
-      <c r="F24" s="14" t="s">
-        <v>273</v>
-      </c>
-      <c r="G24" s="16" t="s">
-        <v>393</v>
+        <v>78</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>333</v>
+      </c>
+      <c r="F22" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="G22" s="13" t="s">
+        <v>382</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:D3" xr:uid="{AEF16938-D8E5-4801-B1E5-FBCE86DB855C}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:D24">
-      <sortCondition ref="C3"/>
+  <autoFilter ref="A1:D1" xr:uid="{AEF16938-D8E5-4801-B1E5-FBCE86DB855C}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D22">
+      <sortCondition ref="C1"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="10" type="noConversion"/>
@@ -4114,10 +3996,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B428E6EE-AD18-4D41-A054-6F7600214A62}">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B2" sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4126,509 +4008,495 @@
     <col min="2" max="2" width="31.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22.6640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="25.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.6640625" style="11" customWidth="1"/>
-    <col min="6" max="6" width="22.88671875" style="11" customWidth="1"/>
-    <col min="7" max="7" width="25.6640625" style="11" customWidth="1"/>
+    <col min="5" max="5" width="21.6640625" style="9" customWidth="1"/>
+    <col min="6" max="6" width="22.88671875" style="9" customWidth="1"/>
+    <col min="7" max="7" width="25.6640625" style="9" customWidth="1"/>
     <col min="8" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B1" s="7" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B2" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="E2" s="12"/>
-    </row>
-    <row r="3" spans="1:7" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
+    <row r="1" spans="1:7" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B1" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>396</v>
-      </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5" t="s">
-        <v>265</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>266</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>267</v>
+      <c r="C1" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>334</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>335</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="13" t="s">
-        <v>345</v>
-      </c>
-      <c r="F4" s="14" t="s">
-        <v>273</v>
-      </c>
-      <c r="G4" s="17" t="s">
-        <v>394</v>
+      <c r="E4" s="10" t="s">
+        <v>336</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="E5" s="13" t="s">
-        <v>346</v>
-      </c>
-      <c r="F5" s="14" t="s">
-        <v>273</v>
-      </c>
-      <c r="G5" s="17" t="s">
-        <v>394</v>
+      <c r="E5" s="10" t="s">
+        <v>337</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="E6" s="13" t="s">
-        <v>347</v>
-      </c>
-      <c r="F6" s="14" t="s">
-        <v>273</v>
-      </c>
-      <c r="G6" s="17" t="s">
-        <v>394</v>
+      <c r="E6" s="10" t="s">
+        <v>338</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="E7" s="13" t="s">
-        <v>348</v>
-      </c>
-      <c r="F7" s="14" t="s">
-        <v>273</v>
-      </c>
-      <c r="G7" s="17" t="s">
-        <v>394</v>
+      <c r="E7" s="10" t="s">
+        <v>339</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="E8" s="13" t="s">
-        <v>349</v>
-      </c>
-      <c r="F8" s="14" t="s">
-        <v>273</v>
-      </c>
-      <c r="G8" s="17" t="s">
-        <v>394</v>
+      <c r="E8" s="10" t="s">
+        <v>340</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="E9" s="13" t="s">
-        <v>350</v>
-      </c>
-      <c r="F9" s="14" t="s">
-        <v>273</v>
-      </c>
-      <c r="G9" s="17" t="s">
-        <v>394</v>
+      <c r="E9" s="10" t="s">
+        <v>341</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="E10" s="13" t="s">
-        <v>351</v>
-      </c>
-      <c r="F10" s="14" t="s">
-        <v>273</v>
-      </c>
-      <c r="G10" s="17" t="s">
-        <v>394</v>
+      <c r="E10" s="10" t="s">
+        <v>342</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="E11" s="13" t="s">
-        <v>352</v>
-      </c>
-      <c r="F11" s="14" t="s">
-        <v>273</v>
-      </c>
-      <c r="G11" s="17" t="s">
-        <v>394</v>
+      <c r="E11" s="10" t="s">
+        <v>343</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="G11" s="14" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="E12" s="13" t="s">
-        <v>353</v>
-      </c>
-      <c r="F12" s="14" t="s">
-        <v>273</v>
-      </c>
-      <c r="G12" s="17" t="s">
-        <v>394</v>
+      <c r="E12" s="10" t="s">
+        <v>344</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="E13" s="13" t="s">
-        <v>354</v>
-      </c>
-      <c r="F13" s="14" t="s">
-        <v>273</v>
-      </c>
-      <c r="G13" s="17" t="s">
-        <v>394</v>
+      <c r="E13" s="10" t="s">
+        <v>345</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="G13" s="14" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="E14" s="13" t="s">
-        <v>355</v>
-      </c>
-      <c r="F14" s="14" t="s">
-        <v>273</v>
-      </c>
-      <c r="G14" s="17" t="s">
-        <v>394</v>
+      <c r="E14" s="10" t="s">
+        <v>346</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="G14" s="14" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="E15" s="13" t="s">
-        <v>356</v>
-      </c>
-      <c r="F15" s="14" t="s">
-        <v>273</v>
-      </c>
-      <c r="G15" s="17" t="s">
-        <v>394</v>
+      <c r="E15" s="10" t="s">
+        <v>347</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="G15" s="14" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="E16" s="13" t="s">
-        <v>357</v>
-      </c>
-      <c r="F16" s="14" t="s">
-        <v>273</v>
-      </c>
-      <c r="G16" s="17" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="3">
-        <v>14</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E17" s="13" t="s">
-        <v>358</v>
-      </c>
-      <c r="F17" s="14" t="s">
-        <v>273</v>
-      </c>
-      <c r="G17" s="17" t="s">
-        <v>394</v>
-      </c>
+      <c r="E16" s="10" t="s">
+        <v>348</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="G16" s="14" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="15">
+        <v>16</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="E17" s="17" t="s">
+        <v>349</v>
+      </c>
+      <c r="F17" s="18" t="s">
+        <v>262</v>
+      </c>
+      <c r="G17" s="19"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="E18" s="13" t="s">
-        <v>359</v>
-      </c>
-      <c r="F18" s="14" t="s">
-        <v>273</v>
-      </c>
-      <c r="G18" s="17" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="18">
-        <v>16</v>
-      </c>
-      <c r="B19" s="18" t="s">
-        <v>163</v>
-      </c>
-      <c r="C19" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="D19" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="E19" s="20" t="s">
-        <v>360</v>
-      </c>
-      <c r="F19" s="21" t="s">
-        <v>273</v>
-      </c>
-      <c r="G19" s="22"/>
+      <c r="E18" s="10" t="s">
+        <v>350</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="G18" s="14" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="3">
+        <v>18</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>351</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="G19" s="21" t="s">
+        <v>384</v>
+      </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="E20" s="13" t="s">
-        <v>361</v>
-      </c>
-      <c r="F20" s="14" t="s">
-        <v>273</v>
-      </c>
-      <c r="G20" s="17" t="s">
-        <v>394</v>
+      <c r="E20" s="10" t="s">
+        <v>352</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="G20" s="21" t="s">
+        <v>384</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="E21" s="13" t="s">
-        <v>362</v>
-      </c>
-      <c r="F21" s="14" t="s">
-        <v>273</v>
-      </c>
-      <c r="G21" s="24" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="3">
-        <v>19</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E22" s="13" t="s">
-        <v>363</v>
-      </c>
-      <c r="F22" s="14" t="s">
-        <v>273</v>
-      </c>
-      <c r="G22" s="24" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="3">
-        <v>20</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E23" s="13" t="s">
-        <v>364</v>
-      </c>
-      <c r="F23" s="14" t="s">
-        <v>273</v>
-      </c>
-      <c r="G23" s="24" t="s">
-        <v>395</v>
+      <c r="E21" s="10" t="s">
+        <v>353</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="G21" s="21" t="s">
+        <v>384</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:D3" xr:uid="{B428E6EE-AD18-4D41-A054-6F7600214A62}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:D23">
-      <sortCondition ref="C3"/>
+  <autoFilter ref="A1:D1" xr:uid="{B428E6EE-AD18-4D41-A054-6F7600214A62}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D21">
+      <sortCondition ref="C1"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="10" type="noConversion"/>
@@ -4639,10 +4507,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37CC42E4-13AB-4CA3-90BB-4A2D79CF388C}">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B2" sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4651,419 +4519,405 @@
     <col min="2" max="2" width="32.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22.6640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="35" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.6640625" style="11" customWidth="1"/>
-    <col min="6" max="6" width="22.88671875" style="11" customWidth="1"/>
-    <col min="7" max="7" width="25.6640625" style="11" customWidth="1"/>
+    <col min="5" max="5" width="21.6640625" style="9" customWidth="1"/>
+    <col min="6" max="6" width="22.88671875" style="9" customWidth="1"/>
+    <col min="7" max="7" width="25.6640625" style="9" customWidth="1"/>
     <col min="8" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B1" s="7" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B2" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="E2" s="12"/>
-    </row>
-    <row r="3" spans="1:7" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
+    <row r="1" spans="1:7" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B1" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>396</v>
-      </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5" t="s">
-        <v>265</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>266</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>267</v>
+      <c r="C1" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>354</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="G2" s="21" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>355</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="G3" s="21" t="s">
+        <v>384</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>365</v>
-      </c>
-      <c r="F4" s="14" t="s">
-        <v>273</v>
-      </c>
-      <c r="G4" s="24" t="s">
-        <v>395</v>
+        <v>73</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>356</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="G4" s="21" t="s">
+        <v>384</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>366</v>
-      </c>
-      <c r="F5" s="14" t="s">
-        <v>273</v>
-      </c>
-      <c r="G5" s="24" t="s">
-        <v>395</v>
+        <v>115</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>357</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="G5" s="21" t="s">
+        <v>384</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>367</v>
-      </c>
-      <c r="F6" s="14" t="s">
-        <v>273</v>
-      </c>
-      <c r="G6" s="24" t="s">
-        <v>395</v>
+        <v>73</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>358</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="G6" s="21" t="s">
+        <v>384</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>368</v>
-      </c>
-      <c r="F7" s="14" t="s">
-        <v>273</v>
-      </c>
-      <c r="G7" s="24" t="s">
-        <v>395</v>
+        <v>115</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>359</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="G7" s="21" t="s">
+        <v>384</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>369</v>
-      </c>
-      <c r="F8" s="14" t="s">
-        <v>273</v>
-      </c>
-      <c r="G8" s="24" t="s">
-        <v>395</v>
+        <v>115</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>360</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="G8" s="21" t="s">
+        <v>384</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>370</v>
-      </c>
-      <c r="F9" s="14" t="s">
-        <v>273</v>
-      </c>
-      <c r="G9" s="24" t="s">
-        <v>395</v>
+        <v>73</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>361</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="G9" s="21" t="s">
+        <v>384</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="E10" s="13" t="s">
-        <v>371</v>
-      </c>
-      <c r="F10" s="14" t="s">
-        <v>273</v>
-      </c>
-      <c r="G10" s="24" t="s">
-        <v>395</v>
+        <v>73</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>362</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="G10" s="21" t="s">
+        <v>384</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="E11" s="13" t="s">
-        <v>372</v>
-      </c>
-      <c r="F11" s="14" t="s">
-        <v>273</v>
-      </c>
-      <c r="G11" s="24" t="s">
-        <v>395</v>
+        <v>73</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>363</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="G11" s="21" t="s">
+        <v>384</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="E12" s="13" t="s">
-        <v>373</v>
-      </c>
-      <c r="F12" s="14" t="s">
-        <v>273</v>
-      </c>
-      <c r="G12" s="24" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>364</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="G12" s="21" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="E13" s="13" t="s">
-        <v>374</v>
-      </c>
-      <c r="F13" s="14" t="s">
-        <v>273</v>
-      </c>
-      <c r="G13" s="24" t="s">
-        <v>395</v>
+        <v>115</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>365</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="G13" s="21" t="s">
+        <v>384</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="E14" s="13" t="s">
-        <v>375</v>
-      </c>
-      <c r="F14" s="14" t="s">
-        <v>273</v>
-      </c>
-      <c r="G14" s="24" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>366</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="G14" s="21" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="E15" s="13" t="s">
-        <v>376</v>
-      </c>
-      <c r="F15" s="14" t="s">
-        <v>273</v>
-      </c>
-      <c r="G15" s="24" t="s">
-        <v>395</v>
+        <v>73</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>367</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="G15" s="21" t="s">
+        <v>384</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="C16" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>368</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="G16" s="21" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="8">
+        <v>12</v>
+      </c>
+      <c r="B17" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="D16" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="E16" s="13" t="s">
-        <v>377</v>
-      </c>
-      <c r="F16" s="14" t="s">
-        <v>273</v>
-      </c>
-      <c r="G16" s="24" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="3">
-        <v>15</v>
-      </c>
-      <c r="B17" s="3" t="s">
+      <c r="C17" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="E17" s="13" t="s">
-        <v>378</v>
-      </c>
-      <c r="F17" s="14" t="s">
-        <v>273</v>
-      </c>
-      <c r="G17" s="24" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="3">
-        <v>16</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="E18" s="13" t="s">
-        <v>379</v>
-      </c>
-      <c r="F18" s="14" t="s">
-        <v>273</v>
-      </c>
-      <c r="G18" s="24" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="10">
-        <v>12</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="D19" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="E19" s="13" t="s">
-        <v>392</v>
-      </c>
-      <c r="F19" s="14" t="s">
-        <v>273</v>
-      </c>
-      <c r="G19" s="24" t="s">
-        <v>395</v>
+      <c r="D17" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>381</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="G17" s="21" t="s">
+        <v>384</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:D3" xr:uid="{37CC42E4-13AB-4CA3-90BB-4A2D79CF388C}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:D19">
-      <sortCondition ref="C3"/>
+  <autoFilter ref="A1:D1" xr:uid="{37CC42E4-13AB-4CA3-90BB-4A2D79CF388C}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D17">
+      <sortCondition ref="C1"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="10" type="noConversion"/>
@@ -5074,10 +4928,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C558A906-83C0-4391-B796-D124CDA76097}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B2" sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5086,120 +4940,106 @@
     <col min="2" max="2" width="33" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22.6640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="37.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.6640625" style="11" customWidth="1"/>
-    <col min="6" max="6" width="22.88671875" style="11" customWidth="1"/>
-    <col min="7" max="7" width="25.6640625" style="11" customWidth="1"/>
+    <col min="5" max="5" width="21.6640625" style="9" customWidth="1"/>
+    <col min="6" max="6" width="22.88671875" style="9" customWidth="1"/>
+    <col min="7" max="7" width="25.6640625" style="9" customWidth="1"/>
     <col min="8" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B1" s="7" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B2" s="6" t="s">
-        <v>243</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="E2" s="12"/>
-    </row>
-    <row r="3" spans="1:7" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
+    <row r="1" spans="1:7" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B1" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>396</v>
-      </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5" t="s">
-        <v>265</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>266</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>267</v>
+      <c r="C1" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>369</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="G2" s="21" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>370</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="G3" s="21" t="s">
+        <v>384</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>380</v>
-      </c>
-      <c r="F4" s="14" t="s">
-        <v>273</v>
-      </c>
-      <c r="G4" s="24" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="3">
-        <v>2</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>381</v>
-      </c>
-      <c r="F5" s="14" t="s">
-        <v>273</v>
-      </c>
-      <c r="G5" s="24" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="3">
-        <v>3</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>382</v>
-      </c>
-      <c r="F6" s="14" t="s">
-        <v>273</v>
-      </c>
-      <c r="G6" s="24" t="s">
-        <v>395</v>
+        <v>78</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>371</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="G4" s="21" t="s">
+        <v>384</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:D3" xr:uid="{C558A906-83C0-4391-B796-D124CDA76097}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:D6">
-      <sortCondition ref="C3"/>
+  <autoFilter ref="A1:D1" xr:uid="{C558A906-83C0-4391-B796-D124CDA76097}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D4">
+      <sortCondition ref="C1"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="10" type="noConversion"/>
@@ -5210,10 +5050,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{005FF095-9963-435C-BBE9-15AB243505E9}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5222,74 +5062,60 @@
     <col min="2" max="2" width="33" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22.6640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="25.44140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="21.6640625" style="11" customWidth="1"/>
-    <col min="6" max="6" width="22.88671875" style="11" customWidth="1"/>
-    <col min="7" max="7" width="25.6640625" style="11" customWidth="1"/>
+    <col min="5" max="5" width="21.6640625" style="9" customWidth="1"/>
+    <col min="6" max="6" width="22.88671875" style="9" customWidth="1"/>
+    <col min="7" max="7" width="25.6640625" style="9" customWidth="1"/>
     <col min="8" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B1" s="7" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B2" s="6" t="s">
-        <v>246</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="E2" s="12"/>
-    </row>
-    <row r="3" spans="1:7" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
+    <row r="1" spans="1:7" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B1" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>396</v>
-      </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5" t="s">
-        <v>265</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>266</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="3">
+      <c r="C1" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>383</v>
-      </c>
-      <c r="F4" s="14" t="s">
-        <v>273</v>
-      </c>
-      <c r="G4" s="24" t="s">
-        <v>395</v>
+      <c r="B2" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>236</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>372</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="G2" s="21" t="s">
+        <v>384</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:D3" xr:uid="{005FF095-9963-435C-BBE9-15AB243505E9}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:D4">
-      <sortCondition ref="C3"/>
+  <autoFilter ref="A1:D1" xr:uid="{005FF095-9963-435C-BBE9-15AB243505E9}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D2">
+      <sortCondition ref="C1"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5298,10 +5124,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1ABB0038-F6ED-4CBC-9580-214B2D30B134}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B2" sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5310,120 +5136,106 @@
     <col min="2" max="2" width="38.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22.6640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="33.109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="21.6640625" style="11" customWidth="1"/>
-    <col min="6" max="6" width="22.88671875" style="11" customWidth="1"/>
-    <col min="7" max="7" width="25.6640625" style="11" customWidth="1"/>
+    <col min="5" max="5" width="21.6640625" style="9" customWidth="1"/>
+    <col min="6" max="6" width="22.88671875" style="9" customWidth="1"/>
+    <col min="7" max="7" width="25.6640625" style="9" customWidth="1"/>
     <col min="8" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B1" s="7" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B2" s="6" t="s">
-        <v>253</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="E2" s="12"/>
-    </row>
-    <row r="3" spans="1:7" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
+    <row r="1" spans="1:7" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B1" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>396</v>
-      </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5" t="s">
-        <v>265</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>266</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>267</v>
+      <c r="C1" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>373</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="G2" s="21" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>374</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="G3" s="21" t="s">
+        <v>384</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>251</v>
+        <v>238</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="E4" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>375</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="G4" s="21" t="s">
         <v>384</v>
       </c>
-      <c r="F4" s="14" t="s">
-        <v>273</v>
-      </c>
-      <c r="G4" s="24" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="3">
-        <v>2</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>385</v>
-      </c>
-      <c r="F5" s="14" t="s">
-        <v>273</v>
-      </c>
-      <c r="G5" s="24" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="3">
-        <v>3</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>386</v>
-      </c>
-      <c r="F6" s="14" t="s">
-        <v>273</v>
-      </c>
-      <c r="G6" s="24" t="s">
-        <v>395</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:D3" xr:uid="{1ABB0038-F6ED-4CBC-9580-214B2D30B134}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:D6">
-      <sortCondition ref="C3"/>
+  <autoFilter ref="A1:D1" xr:uid="{1ABB0038-F6ED-4CBC-9580-214B2D30B134}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D4">
+      <sortCondition ref="C1"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="10" type="noConversion"/>
